--- a/X1621串线设备资料.xlsx
+++ b/X1621串线设备资料.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="1" r:id="rId1"/>
+    <sheet name="地址" sheetId="2" r:id="rId2"/>
+    <sheet name="产品信息" sheetId="3" r:id="rId3"/>
+    <sheet name="载具" sheetId="4" r:id="rId4"/>
+    <sheet name="机械手命令" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">地址!$A$1:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">载具!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
   <si>
     <t>1#</t>
   </si>
@@ -58,6 +62,579 @@
   </si>
   <si>
     <t>6+10+5=21</t>
+  </si>
+  <si>
+    <t>UI从机械手读</t>
+  </si>
+  <si>
+    <t>UI向机械手写</t>
+  </si>
+  <si>
+    <t>首台机入口</t>
+  </si>
+  <si>
+    <t>机械手与PLC扩展点位通讯（16点）</t>
+  </si>
+  <si>
+    <t>IOCMD;111001011……</t>
+  </si>
+  <si>
+    <t>111101110001111……</t>
+  </si>
+  <si>
+    <t>PLC扩展点（机械手）</t>
+  </si>
+  <si>
+    <t>机械手中间变量</t>
+  </si>
+  <si>
+    <t>mem300</t>
+  </si>
+  <si>
+    <t>mem100</t>
+  </si>
+  <si>
+    <t>M2796</t>
+  </si>
+  <si>
+    <t>进板响应【A轨道】</t>
+  </si>
+  <si>
+    <t>M2596</t>
+  </si>
+  <si>
+    <t>要板命令【A轨道】</t>
+  </si>
+  <si>
+    <t>X50-X67</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>mem100-mem115</t>
+  </si>
+  <si>
+    <t>mem301</t>
+  </si>
+  <si>
+    <t>mem101</t>
+  </si>
+  <si>
+    <t>M2797</t>
+  </si>
+  <si>
+    <t>扫码（载具）【A轨道】</t>
+  </si>
+  <si>
+    <t>M2597</t>
+  </si>
+  <si>
+    <t>载具扫码OK【A轨道】</t>
+  </si>
+  <si>
+    <t>Y50-Y67</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>mem300-mem315</t>
+  </si>
+  <si>
+    <t>mem302</t>
+  </si>
+  <si>
+    <t>mem102</t>
+  </si>
+  <si>
+    <t>M2798</t>
+  </si>
+  <si>
+    <t>上顶【A轨道】</t>
+  </si>
+  <si>
+    <t>M2598</t>
+  </si>
+  <si>
+    <t>载具扫码NG【A轨道】</t>
+  </si>
+  <si>
+    <t>mem303</t>
+  </si>
+  <si>
+    <t>mem103</t>
+  </si>
+  <si>
+    <t>M2799</t>
+  </si>
+  <si>
+    <t>M2599</t>
+  </si>
+  <si>
+    <t>载具扫码-已测过【A轨道】</t>
+  </si>
+  <si>
+    <t>机械手与PLC信号通讯（64点）</t>
+  </si>
+  <si>
+    <t>mem304</t>
+  </si>
+  <si>
+    <t>mem104</t>
+  </si>
+  <si>
+    <t>M2800</t>
+  </si>
+  <si>
+    <t>M2600</t>
+  </si>
+  <si>
+    <t>载具扫码-未测过【A轨道】</t>
+  </si>
+  <si>
+    <t>PLC中间变量</t>
+  </si>
+  <si>
+    <t>mem305</t>
+  </si>
+  <si>
+    <t>mem105</t>
+  </si>
+  <si>
+    <t>M2801</t>
+  </si>
+  <si>
+    <t>进板响应【B轨道】</t>
+  </si>
+  <si>
+    <t>M2601</t>
+  </si>
+  <si>
+    <t>要板命令【B轨道】</t>
+  </si>
+  <si>
+    <t>M2700-M2763</t>
+  </si>
+  <si>
+    <t>mem116-mem179</t>
+  </si>
+  <si>
+    <t>mem306</t>
+  </si>
+  <si>
+    <t>mem106</t>
+  </si>
+  <si>
+    <t>M2802</t>
+  </si>
+  <si>
+    <t>扫码（载具）【B轨道】</t>
+  </si>
+  <si>
+    <t>M2602</t>
+  </si>
+  <si>
+    <t>载具扫码OK【B轨道】</t>
+  </si>
+  <si>
+    <t>M2500-M2563</t>
+  </si>
+  <si>
+    <t>mem316-mem379</t>
+  </si>
+  <si>
+    <t>mem307</t>
+  </si>
+  <si>
+    <t>mem107</t>
+  </si>
+  <si>
+    <t>M2803</t>
+  </si>
+  <si>
+    <t>上顶【B轨道】</t>
+  </si>
+  <si>
+    <t>M2603</t>
+  </si>
+  <si>
+    <t>载具扫码NG【B轨道】</t>
+  </si>
+  <si>
+    <t>mem308</t>
+  </si>
+  <si>
+    <t>mem108</t>
+  </si>
+  <si>
+    <t>M2804</t>
+  </si>
+  <si>
+    <t>M2604</t>
+  </si>
+  <si>
+    <t>载具扫码-已测过【B轨道】</t>
+  </si>
+  <si>
+    <t>PLC与PLC信号通讯（读后站写前站32点）</t>
+  </si>
+  <si>
+    <t>mem309</t>
+  </si>
+  <si>
+    <t>mem109</t>
+  </si>
+  <si>
+    <t>M2805</t>
+  </si>
+  <si>
+    <t>M2605</t>
+  </si>
+  <si>
+    <t>载具扫码-未测过【B轨道】</t>
+  </si>
+  <si>
+    <t>mem310</t>
+  </si>
+  <si>
+    <t>mem110</t>
+  </si>
+  <si>
+    <t>M2806</t>
+  </si>
+  <si>
+    <t>M2606</t>
+  </si>
+  <si>
+    <t>M2764-M2795（2号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（1号站）</t>
+  </si>
+  <si>
+    <t>mem311</t>
+  </si>
+  <si>
+    <t>mem111</t>
+  </si>
+  <si>
+    <t>M2807</t>
+  </si>
+  <si>
+    <t>M2607</t>
+  </si>
+  <si>
+    <t>M2764-M2795（3号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（2号站）</t>
+  </si>
+  <si>
+    <t>mem312</t>
+  </si>
+  <si>
+    <t>mem112</t>
+  </si>
+  <si>
+    <t>M2808</t>
+  </si>
+  <si>
+    <t>M2608</t>
+  </si>
+  <si>
+    <t>M2764-M2795（4号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（3号站）</t>
+  </si>
+  <si>
+    <t>mem313</t>
+  </si>
+  <si>
+    <t>mem113</t>
+  </si>
+  <si>
+    <t>M2809</t>
+  </si>
+  <si>
+    <t>M2609</t>
+  </si>
+  <si>
+    <t>M2764-M2795（5号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（4号站）</t>
+  </si>
+  <si>
+    <t>mem314</t>
+  </si>
+  <si>
+    <t>mem114</t>
+  </si>
+  <si>
+    <t>M2810</t>
+  </si>
+  <si>
+    <t>M2610</t>
+  </si>
+  <si>
+    <t>M2764-M2795（6号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（5号站）</t>
+  </si>
+  <si>
+    <t>mem315</t>
+  </si>
+  <si>
+    <t>mem115</t>
+  </si>
+  <si>
+    <t>M2811</t>
+  </si>
+  <si>
+    <t>M2611</t>
+  </si>
+  <si>
+    <t>M2764-M2795（7号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（6号站）</t>
+  </si>
+  <si>
+    <t>mem316</t>
+  </si>
+  <si>
+    <t>mem116</t>
+  </si>
+  <si>
+    <t>M2812</t>
+  </si>
+  <si>
+    <t>M2612</t>
+  </si>
+  <si>
+    <t>M2764-M2795（8号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（7号站）</t>
+  </si>
+  <si>
+    <t>mem317</t>
+  </si>
+  <si>
+    <t>mem117</t>
+  </si>
+  <si>
+    <t>M2813</t>
+  </si>
+  <si>
+    <t>M2613</t>
+  </si>
+  <si>
+    <t>M2764-M2795（9号站）</t>
+  </si>
+  <si>
+    <t>M2564-M2595（8号站）</t>
+  </si>
+  <si>
+    <t>mem318</t>
+  </si>
+  <si>
+    <t>mem118</t>
+  </si>
+  <si>
+    <t>M2814</t>
+  </si>
+  <si>
+    <t>M2614</t>
+  </si>
+  <si>
+    <t>mem319</t>
+  </si>
+  <si>
+    <t>mem119</t>
+  </si>
+  <si>
+    <t>M2815</t>
+  </si>
+  <si>
+    <t>M2615</t>
+  </si>
+  <si>
+    <t>机械手与上位机通讯（64点）</t>
+  </si>
+  <si>
+    <t>mem320</t>
+  </si>
+  <si>
+    <t>mem120</t>
+  </si>
+  <si>
+    <t>M2816</t>
+  </si>
+  <si>
+    <t>M2616</t>
+  </si>
+  <si>
+    <t>上位机</t>
+  </si>
+  <si>
+    <t>机械手</t>
+  </si>
+  <si>
+    <t>mem321</t>
+  </si>
+  <si>
+    <t>mem121</t>
+  </si>
+  <si>
+    <t>M2817</t>
+  </si>
+  <si>
+    <t>M2617</t>
+  </si>
+  <si>
+    <t>mem180-mem243</t>
+  </si>
+  <si>
+    <t>mem322</t>
+  </si>
+  <si>
+    <t>mem122</t>
+  </si>
+  <si>
+    <t>M2818</t>
+  </si>
+  <si>
+    <t>M2618</t>
+  </si>
+  <si>
+    <t>mem380-mem443</t>
+  </si>
+  <si>
+    <t>mem323</t>
+  </si>
+  <si>
+    <t>mem123</t>
+  </si>
+  <si>
+    <t>M2819</t>
+  </si>
+  <si>
+    <t>M2619</t>
+  </si>
+  <si>
+    <t>mem324</t>
+  </si>
+  <si>
+    <t>mem124</t>
+  </si>
+  <si>
+    <t>M2820</t>
+  </si>
+  <si>
+    <t>M2620</t>
+  </si>
+  <si>
+    <t>PLC与上位机通讯（64点）</t>
+  </si>
+  <si>
+    <t>mem325</t>
+  </si>
+  <si>
+    <t>mem125</t>
+  </si>
+  <si>
+    <t>M2821</t>
+  </si>
+  <si>
+    <t>M2621</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>mem326</t>
+  </si>
+  <si>
+    <t>mem126</t>
+  </si>
+  <si>
+    <t>M2822</t>
+  </si>
+  <si>
+    <t>M2622</t>
+  </si>
+  <si>
+    <t>M2596-2659</t>
+  </si>
+  <si>
+    <t>mem327</t>
+  </si>
+  <si>
+    <t>mem127</t>
+  </si>
+  <si>
+    <t>M2823</t>
+  </si>
+  <si>
+    <t>M2623</t>
+  </si>
+  <si>
+    <t>M2796-2859</t>
+  </si>
+  <si>
+    <t>产品状态</t>
+  </si>
+  <si>
+    <t>良品</t>
+  </si>
+  <si>
+    <t>AOI不良</t>
+  </si>
+  <si>
+    <t>蚀刻不良</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>空穴</t>
+  </si>
+  <si>
+    <t>响应</t>
+  </si>
+  <si>
+    <t>ReleaseA</t>
+  </si>
+  <si>
+    <t>区间号</t>
+  </si>
+  <si>
+    <t>产品1状态</t>
+  </si>
+  <si>
+    <t>产品2状态</t>
+  </si>
+  <si>
+    <t>ReleaseB</t>
+  </si>
+  <si>
+    <t>OriginalResult</t>
+  </si>
+  <si>
+    <t>穴位号</t>
+  </si>
+  <si>
+    <t>ABBResult</t>
+  </si>
+  <si>
+    <t>AABResult</t>
   </si>
 </sst>
 </file>
@@ -70,20 +647,12 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,8 +663,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,62 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +732,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +784,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,73 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +851,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,43 +947,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,26 +1018,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +1053,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,17 +1082,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,11 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +1120,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,11 +1269,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,13 +1702,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:t>2.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -1162,91 +1726,37 @@
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>&gt;=</a:t>
+            <a:t>&gt;= 5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>存储，接驳台</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t> 5 </a:t>
+            <a:t>2#</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>存储</a:t>
+            <a:t>数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&lt;5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，接驳台</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>#</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>存储</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>放</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>板</a:t>
+            <a:t>，不存储，放板</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US">
             <a:sym typeface="+mn-ea"/>
@@ -1258,145 +1768,73 @@
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>轨道</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>.</a:t>
+            <a:t>+</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>轨道</a:t>
+            <a:t>测试机板数量 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>+</a:t>
+            <a:t>&gt;= 5 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>测试机板数量 </a:t>
+            <a:t>存储，接驳台</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>&gt;=</a:t>
+            <a:t>2#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>数量</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t> 5 </a:t>
+            <a:t>&gt;=5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>存储</a:t>
+            <a:t>，本身已存板数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&lt;10</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>接驳台</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>#</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&gt;=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>本身</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>已</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>板</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&lt;10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>存储</a:t>
+            <a:t>，存储</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US">
             <a:sym typeface="+mn-ea"/>
@@ -1408,43 +1846,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>没有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>板子</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>来</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>检测</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>时间到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
+            <a:t>没有板子来，检测时间到：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:sym typeface="+mn-ea"/>
@@ -1462,31 +1864,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>无</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>存储</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不做</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>动作</a:t>
+            <a:t>无存储，不做动作</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:sym typeface="+mn-ea"/>
@@ -1498,31 +1876,13 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>·</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>· </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>存储</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
+            <a:t>有存储：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:sym typeface="+mn-ea"/>
@@ -1534,67 +1894,49 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>轨道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>测试机板数量 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&lt; 5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>轨道</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>测试机板数量 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&lt; 5 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>下</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>块</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>板</a:t>
+            <a:t>块板</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US">
             <a:sym typeface="+mn-ea"/>
@@ -1606,13 +1948,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:t>2.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -1636,85 +1972,49 @@
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>&gt;=</a:t>
+            <a:t>&gt;= 5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，接驳台</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t> 5 </a:t>
+            <a:t>2#</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&lt;5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>接驳台</a:t>
+            <a:t>，下</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>#</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>数量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>下</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>块</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>板</a:t>
+            <a:t>块板</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US">
             <a:sym typeface="+mn-ea"/>
@@ -1726,13 +2026,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:t>3.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -1756,73 +2050,37 @@
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>&gt;=</a:t>
+            <a:t>&gt;= 5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，接驳台</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t> 5 </a:t>
+            <a:t>2#</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&gt;=5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>接驳台</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>#</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&gt;=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>动作</a:t>
+            <a:t>，不动作</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:sym typeface="+mn-ea"/>
@@ -1998,11 +2256,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>#</a:t>
+            <a:t>2#</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2262,16 +2516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292735</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2280,7 +2534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="1901190"/>
+          <a:off x="10019030" y="9850120"/>
           <a:ext cx="1137285" cy="1369060"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -2341,16 +2595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>242570</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>601345</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2359,7 +2613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548370" y="1910080"/>
+          <a:off x="10701020" y="6929120"/>
           <a:ext cx="1139825" cy="1369060"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -2515,6 +2769,53 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13106400" cy="6924675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2811,7 +3112,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F16" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -2822,87 +3123,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -2923,17 +3224,807 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2941,16 +4032,286 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="3" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD70" sqref="AD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/X1621串线设备资料.xlsx
+++ b/X1621串线设备资料.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="212">
   <si>
     <t>1#</t>
   </si>
@@ -610,7 +610,10 @@
     <t>响应</t>
   </si>
   <si>
-    <t>ReleaseA</t>
+    <t>时机</t>
+  </si>
+  <si>
+    <t>ReleaseA;7;3;4</t>
   </si>
   <si>
     <t>区间号</t>
@@ -622,19 +625,40 @@
     <t>产品2状态</t>
   </si>
   <si>
-    <t>ReleaseB</t>
-  </si>
-  <si>
-    <t>OriginalResult</t>
+    <t>放A盘</t>
+  </si>
+  <si>
+    <t>ReleaseB;7;3;4</t>
+  </si>
+  <si>
+    <t>放B盘</t>
+  </si>
+  <si>
+    <t>TestResultCount;OK;1</t>
+  </si>
+  <si>
+    <t>结果</t>
   </si>
   <si>
     <t>穴位号</t>
   </si>
   <si>
-    <t>ABBResult</t>
-  </si>
-  <si>
-    <t>AABResult</t>
+    <t>AAB完成之后机械手取到产品</t>
+  </si>
+  <si>
+    <t>Start;1</t>
+  </si>
+  <si>
+    <t>测试机开始测试产品</t>
+  </si>
+  <si>
+    <t>Finish;1;1</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>测试机产品测试完成</t>
   </si>
 </sst>
 </file>
@@ -642,9 +666,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -663,9 +687,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,27 +704,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,7 +742,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,15 +757,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,7 +781,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +811,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,150 +830,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -971,7 +851,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,17 +1038,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,17 +1069,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,6 +1116,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,21 +1139,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,10 +1147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,138 +1159,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3123,87 +3159,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -3249,776 +3285,776 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4045,32 +4081,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4078,7 +4114,7 @@
       <c r="A5" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5">
@@ -4089,7 +4125,7 @@
       <c r="A6" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4100,7 +4136,7 @@
       <c r="A7" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7">
@@ -4140,175 +4176,244 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="E2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="C4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+      <c r="B5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+      <c r="B6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
         <v>20</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/X1621串线设备资料.xlsx
+++ b/X1621串线设备资料.xlsx
@@ -4,26 +4,62 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
     <sheet name="地址" sheetId="2" r:id="rId2"/>
-    <sheet name="产品信息" sheetId="3" r:id="rId3"/>
-    <sheet name="载具" sheetId="4" r:id="rId4"/>
-    <sheet name="机械手命令" sheetId="5" r:id="rId5"/>
+    <sheet name="接驳台1" sheetId="6" r:id="rId3"/>
+    <sheet name="产品信息" sheetId="3" r:id="rId4"/>
+    <sheet name="载具" sheetId="4" r:id="rId5"/>
+    <sheet name="机械手命令" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">地址!$A$1:$K$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">载具!$A$1:$T$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">地址!$E$1:$H$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">载具!$A$1:$T$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">接驳台1!$A$1:$D$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">机械手命令!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
+  <si>
+    <t>Station1</t>
+  </si>
+  <si>
+    <t>Station2</t>
+  </si>
+  <si>
+    <t>Station3</t>
+  </si>
+  <si>
+    <t>Station4</t>
+  </si>
+  <si>
+    <t>Station5</t>
+  </si>
+  <si>
+    <t>Station6</t>
+  </si>
+  <si>
+    <t>Station7</t>
+  </si>
+  <si>
+    <t>Station8</t>
+  </si>
+  <si>
+    <t>Station9</t>
+  </si>
+  <si>
+    <t>Station10</t>
+  </si>
+  <si>
+    <t>Station11</t>
+  </si>
   <si>
     <t>1#</t>
   </si>
@@ -70,7 +106,7 @@
     <t>UI向机械手写</t>
   </si>
   <si>
-    <t>首台机入口</t>
+    <t>测试机台</t>
   </si>
   <si>
     <t>机械手与PLC扩展点位通讯（16点）</t>
@@ -169,6 +205,9 @@
     <t>M2799</t>
   </si>
   <si>
+    <t>测完下放【A轨道】</t>
+  </si>
+  <si>
     <t>M2599</t>
   </si>
   <si>
@@ -271,6 +310,9 @@
     <t>M2804</t>
   </si>
   <si>
+    <t>测完下放【B轨道】</t>
+  </si>
+  <si>
     <t>M2604</t>
   </si>
   <si>
@@ -584,6 +626,45 @@
   </si>
   <si>
     <t>M2796-2859</t>
+  </si>
+  <si>
+    <t>接驳台</t>
+  </si>
+  <si>
+    <t>直接放走【A轨道】</t>
+  </si>
+  <si>
+    <t>存储【A轨道】</t>
+  </si>
+  <si>
+    <t>存储响应【A轨道】</t>
+  </si>
+  <si>
+    <t>放新板响应【A轨道】</t>
+  </si>
+  <si>
+    <t>放存储板响应【A轨道】</t>
+  </si>
+  <si>
+    <t>直接放走【B轨道】</t>
+  </si>
+  <si>
+    <t>存储【B轨道】</t>
+  </si>
+  <si>
+    <t>存储响应【B轨道】</t>
+  </si>
+  <si>
+    <t>放新板响应【B轨道】</t>
+  </si>
+  <si>
+    <t>放存储板响应【B轨道】</t>
+  </si>
+  <si>
+    <t>放1块存储板【A轨道】</t>
+  </si>
+  <si>
+    <t>放1块存储板【B轨道】</t>
   </si>
   <si>
     <t>产品状态</t>
@@ -687,8 +768,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +814,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,13 +859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,17 +867,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,29 +891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,13 +900,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,7 +914,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,109 +1064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1119,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,19 +1165,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,26 +1186,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,10 +1228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,7 +1240,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,128 +1249,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,11 +1386,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1378,13 +1465,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>256540</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>356235</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,8 +1490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1799590" y="800735"/>
-          <a:ext cx="11072495" cy="3215005"/>
+          <a:off x="4533265" y="972185"/>
+          <a:ext cx="11443970" cy="3215005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,13 +1504,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>201295</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1433,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="267970" y="2476500"/>
-          <a:ext cx="1476375" cy="876300"/>
+          <a:off x="715645" y="2647950"/>
+          <a:ext cx="3762375" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,13 +1609,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>433070</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>673735</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1538,8 +1625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2661920" y="4089400"/>
-          <a:ext cx="5041265" cy="2259330"/>
+          <a:off x="5424170" y="4260850"/>
+          <a:ext cx="5384165" cy="2259330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,13 +2223,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2152,7 +2239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8455025" y="4089400"/>
+          <a:off x="11560175" y="4260850"/>
           <a:ext cx="3843655" cy="2096135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2552,16 +2639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>246380</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2570,7 +2657,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10019030" y="9850120"/>
+          <a:off x="5444490" y="1843405"/>
           <a:ext cx="1137285" cy="1369060"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -2631,16 +2718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>242570</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>374015</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2649,7 +2736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10701020" y="6929120"/>
+          <a:off x="11426190" y="1784350"/>
           <a:ext cx="1139825" cy="1369060"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -3146,113 +3233,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="6" width="3.375" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3265,8 +3390,8 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3285,787 +3410,1100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>29</v>
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="K8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="K9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>56</v>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>95</v>
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>101</v>
+      <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>107</v>
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>113</v>
+      <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>119</v>
+      <c r="A17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>125</v>
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>131</v>
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>137</v>
+      <c r="A20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>152</v>
+      <c r="A23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>157</v>
+      <c r="A24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>162</v>
+      <c r="A25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>176</v>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>181</v>
+      <c r="A29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>186</v>
+      <c r="A30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
@@ -4081,40 +4519,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="6">
+        <v>217</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5">
@@ -4123,9 +4561,9 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="6">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4134,9 +4572,9 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="6">
+        <v>219</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7">
@@ -4153,7 +4591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4173,13 +4611,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4194,13 +4632,13 @@
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4208,19 +4646,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4228,19 +4666,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4248,17 +4686,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4266,15 +4704,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4282,17 +4720,17 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4417,6 +4855,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/X1621串线设备资料.xlsx
+++ b/X1621串线设备资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">地址!$E$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">载具!$A$1:$T$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">接驳台1!$A$1:$D$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">机械手命令!$A$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">机械手命令!$G$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="252">
   <si>
     <t>Station1</t>
   </si>
@@ -694,22 +694,19 @@
     <t>时机</t>
   </si>
   <si>
-    <t>ReleaseA;7;3;4</t>
-  </si>
-  <si>
-    <t>区间号</t>
+    <t>ReleaseA;7;3</t>
+  </si>
+  <si>
+    <t>产品号</t>
   </si>
   <si>
     <t>产品1状态</t>
   </si>
   <si>
-    <t>产品2状态</t>
-  </si>
-  <si>
     <t>放A盘</t>
   </si>
   <si>
-    <t>ReleaseB;7;3;4</t>
+    <t>ReleaseB;7;3</t>
   </si>
   <si>
     <t>放B盘</t>
@@ -740,6 +737,51 @@
   </si>
   <si>
     <t>测试机产品测试完成</t>
+  </si>
+  <si>
+    <t>CheckClean</t>
+  </si>
+  <si>
+    <t>StartClean</t>
+  </si>
+  <si>
+    <t>清洁模式(需要清洁)</t>
+  </si>
+  <si>
+    <t>取产品之前</t>
+  </si>
+  <si>
+    <t>EndClean</t>
+  </si>
+  <si>
+    <t>不需要清洁</t>
+  </si>
+  <si>
+    <t>AskSample</t>
+  </si>
+  <si>
+    <t>SampleTest;OK(NG)</t>
+  </si>
+  <si>
+    <t>OK:需要测样本/NG:不需要测样本</t>
+  </si>
+  <si>
+    <t>StartSample</t>
+  </si>
+  <si>
+    <t>表示机械手告诉上位机开始执行测样本了</t>
+  </si>
+  <si>
+    <t>CheckSample</t>
+  </si>
+  <si>
+    <t>RestartSample;1;2</t>
+  </si>
+  <si>
+    <t>第2台治具的第3个样本需要重新测试</t>
+  </si>
+  <si>
+    <t>EndSample</t>
   </si>
 </sst>
 </file>
@@ -747,10 +789,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -758,6 +800,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,7 +819,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,55 +908,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,49 +932,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -914,7 +956,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +1052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,73 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,61 +1112,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,78 +1161,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,6 +1190,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,10 +1270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,137 +1282,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,17 +1428,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3249,72 +3282,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3390,7 +3423,7 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3525,7 +3558,7 @@
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -3666,7 +3699,7 @@
       <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -4200,7 +4233,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4232,9 +4265,7 @@
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4329,7 @@
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
@@ -4310,9 +4341,7 @@
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>89</v>
       </c>
@@ -4408,7 +4437,7 @@
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>136</v>
       </c>
@@ -4420,7 +4449,7 @@
       <c r="A19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>142</v>
       </c>
@@ -4430,7 +4459,7 @@
       <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>148</v>
       </c>
@@ -4440,61 +4469,61 @@
       <c r="A21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4614,244 +4643,502 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="48.875" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>231</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="I6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/X1621串线设备资料.xlsx
+++ b/X1621串线设备资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="产品信息" sheetId="3" r:id="rId4"/>
     <sheet name="载具" sheetId="4" r:id="rId5"/>
     <sheet name="机械手命令" sheetId="5" r:id="rId6"/>
+    <sheet name="数据库" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$45</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="283">
   <si>
     <t>Station1</t>
   </si>
@@ -782,25 +783,131 @@
   </si>
   <si>
     <t>EndSample</t>
+  </si>
+  <si>
+    <t>BODMSG</t>
+  </si>
+  <si>
+    <t>SCBARCODE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SIDATE</t>
+  </si>
+  <si>
+    <t>123123E112DAQDWAD</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>BODLINE</t>
+  </si>
+  <si>
+    <t>LineID</t>
+  </si>
+  <si>
+    <t>Station12</t>
+  </si>
+  <si>
+    <t>Station13</t>
+  </si>
+  <si>
+    <t>Station14</t>
+  </si>
+  <si>
+    <t>Station15</t>
+  </si>
+  <si>
+    <t>Station16</t>
+  </si>
+  <si>
+    <t>Station17</t>
+  </si>
+  <si>
+    <t>Station18</t>
+  </si>
+  <si>
+    <t>Station19</t>
+  </si>
+  <si>
+    <t>Station20</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>BARBIND</t>
+  </si>
+  <si>
+    <t>MACHINE</t>
+  </si>
+  <si>
+    <t>SCPNLBAR</t>
+  </si>
+  <si>
+    <t>SCBODBAR</t>
+  </si>
+  <si>
+    <t>SDATE</t>
+  </si>
+  <si>
+    <t>STIME</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>PCSSER</t>
+  </si>
+  <si>
+    <t>C469393S669H149DT-KPC</t>
+  </si>
+  <si>
+    <t>123WDAWEDAWEDAW</t>
+  </si>
+  <si>
+    <t>13241234dfae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -818,6 +925,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -828,13 +950,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,28 +981,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +1004,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,11 +1047,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -956,7 +1063,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,103 +1219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,61 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,6 +1268,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,21 +1323,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1221,11 +1337,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,21 +1369,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1270,10 +1377,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1282,140 +1389,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3268,8 +3378,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -3282,122 +3392,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -3424,7 +3534,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3443,780 +3553,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4250,280 +4360,280 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4538,7 +4648,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -4548,32 +4658,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4581,7 +4691,7 @@
       <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5">
@@ -4592,7 +4702,7 @@
       <c r="A6" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4603,7 +4713,7 @@
       <c r="A7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7">
@@ -4645,7 +4755,7 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -4661,482 +4771,482 @@
     <col min="11" max="11" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:11">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>14</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>15</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <v>16</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>17</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>18</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>19</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>20</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>21</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
     </row>
@@ -5145,4 +5255,451 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43872.4145601852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="V7" s="3">
+        <v>43849.4378935185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="V8" s="3">
+        <v>43849.4378935185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43837.5799305556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43837.625462963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43837.6255092593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43837.6255555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="2">
+        <v>159</v>
+      </c>
+      <c r="I16" s="3">
+        <v>43837.6309143519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>